--- a/doc/spring.xlsx
+++ b/doc/spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="345" windowWidth="14805" windowHeight="7770" tabRatio="944" activeTab="1"/>
+    <workbookView xWindow="7680" yWindow="345" windowWidth="14805" windowHeight="7770" tabRatio="944" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="并发调优" sheetId="17" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="796">
   <si>
     <t>http://jdk6.java.net/download.html</t>
   </si>
@@ -3077,6 +3077,30 @@
   </si>
   <si>
     <t>find / -type f -size +100M -exec ls -lh {} \; | awk '{ print $9 ":" $5 }';</t>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/p/44655bff60a4</t>
+  </si>
+  <si>
+    <t>centos 更新国内yum源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/kamroselee/article/details/79713974</t>
+  </si>
+  <si>
+    <t>ps -aux |grep 5601</t>
+  </si>
+  <si>
+    <t>根据端口号查询源程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netstat -antp|grep 5601</t>
+  </si>
+  <si>
+    <t>根据端口号查询pid和源程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4704,7 +4728,9 @@
   </sheetPr>
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -5135,7 +5161,9 @@
       <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>789</v>
+      </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -9923,7 +9951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+    <sheetView topLeftCell="A249" workbookViewId="0">
       <selection activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
@@ -13711,10 +13739,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:P327"/>
+  <dimension ref="A1:P338"/>
   <sheetViews>
-    <sheetView topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="A327" sqref="A327"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="D340" sqref="D340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16000,6 +16028,36 @@
     <row r="327" spans="1:1">
       <c r="A327" t="s">
         <v>781</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>794</v>
       </c>
     </row>
   </sheetData>
